--- a/BalanceSheet/ECL_bal.xlsx
+++ b/BalanceSheet/ECL_bal.xlsx
@@ -507,16 +507,16 @@
         <v>1347000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-3400000.0</v>
+        <v>1285000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-24200000.0</v>
+        <v>1288000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-125900000.0</v>
+        <v>1229000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-26000000.0</v>
+        <v>1530000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1081600000.0</v>
@@ -1724,13 +1724,13 @@
         <v>1128000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>44100000.0</v>
+        <v>1161000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-8300000.0</v>
+        <v>1108000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>20100000.0</v>
+        <v>1088000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1280000000.0</v>
@@ -2740,16 +2740,16 @@
         <v>527000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-29200000.0</v>
+        <v>321000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>8400000.0</v>
+        <v>425000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-19700000.0</v>
+        <v>436000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-5300000.0</v>
+        <v>584000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>537300000.0</v>
@@ -4441,7 +4441,7 @@
         <v>6680000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>6692000000.0</v>
+        <v>6234800000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>6610100000.0</v>
@@ -4568,7 +4568,7 @@
         <v>8342000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>6933000000.0</v>
+        <v>6353600000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>6746000000.0</v>
